--- a/documents/Published/Trading Chart/TradingChartByMAQSoftwareChecklist.xlsx
+++ b/documents/Published/Trading Chart/TradingChartByMAQSoftwareChecklist.xlsx
@@ -1,13 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18518"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sunny\Desktop\TradingChart\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitLab_PowerBIVisuals\documents\Published\Trading Chart\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE4F9DE5-12E5-4D27-ACB9-E3D0DED75872}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13980" windowHeight="7965" xr2:uid="{6D425234-7E7F-490C-8907-5B869BB20B46}"/>
   </bookViews>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="65">
   <si>
     <t>S no</t>
   </si>
@@ -61,11 +62,6 @@
     <t>Update baseline indicator, increasing trend indicator and decreasing trend indicator</t>
   </si>
   <si>
-    <t>1.  Update 'Baseline indicator' to 'purple'
-2. Update 'Increasing trend indicator' to  'yellow' 
-3. Update 'Decreasing trend indicator' to 'pink'</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 1. Baseline indicator will be set to 'purple'
  2. Increasing trend indicator will be set to 'yellow'
  3. Decreasing trend indicator will be set to 'pink'</t>
@@ -106,14 +102,6 @@
     <t>Y-Axis</t>
   </si>
   <si>
-    <t>1. Go to formatting pane
-2. Go to 'Trend Lines' option
-3. Switch the toggle on
-4. Update 'Color' to 'light blue'
-5. Update 'Display unit' to 'Thousand'
-6. Update 'Decimal value'  to '1'</t>
-  </si>
-  <si>
     <t>Update color, display unit and decimal value for Y-Axis</t>
   </si>
   <si>
@@ -139,9 +127,6 @@
   </si>
   <si>
     <t>Stock Chart Border</t>
-  </si>
-  <si>
-    <t>Stock Chart Border will be set to 'yellow'</t>
   </si>
   <si>
     <t>1. Go to formatting pane
@@ -297,6 +282,42 @@
   </si>
   <si>
     <t>Does visual legends adjusted on resizing? </t>
+  </si>
+  <si>
+    <t>1. Go to formatting pane
+2. Go to 'Data Colors' option
+3.  Update 'Baseline indicator' to 'purple'
+4. Update 'Increasing trend indicator' to  'yellow' 
+5. Update 'Decreasing trend indicator' to 'pink'</t>
+  </si>
+  <si>
+    <t>1. Go to formatting pane
+2. Go to 'Y axis' option
+3. Switch the toggle on
+4. Update 'Color' to 'light blue'
+5. Update 'Display unit' to 'Thousand'
+6. Update 'Decimal value'  to '1'</t>
+  </si>
+  <si>
+    <t>Negative Values Support</t>
+  </si>
+  <si>
+    <t>Negative Values are supported</t>
+  </si>
+  <si>
+    <t>1. Drag 'Date' from Negative Values into 'Date' field 
+2. Drag 'Low' from Negative Values  into  'Low values' field
+3. Drag 'High' from Negative Values  into 'High Values' field
+4. Drag 'Open' from Negative Values  into 'Open Values' field
+5. Drag 'Close' from Negative Values  into 'Close Values' field</t>
+  </si>
+  <si>
+    <t>Display Trading chart with negative 
+values</t>
+  </si>
+  <si>
+    <t>Stock Chart Border will be set to 
+'yellow'</t>
   </si>
 </sst>
 </file>
@@ -428,41 +449,41 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -778,10 +799,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B2FE1A9-DE58-4E51-9284-DEF7424B442C}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -809,7 +830,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -826,7 +847,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -837,10 +858,10 @@
         <v>9</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -848,16 +869,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
         <v>12</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" t="s">
         <v>14</v>
-      </c>
-      <c r="E4" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="75" x14ac:dyDescent="0.25">
@@ -865,33 +886,33 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="D6" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="75" x14ac:dyDescent="0.25">
@@ -899,33 +920,50 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="E7" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="D8" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8" t="s">
-        <v>29</v>
+        <v>27</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="150" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -948,13 +986,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -962,10 +1000,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -973,10 +1011,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -984,10 +1022,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -995,10 +1033,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1006,10 +1044,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1017,10 +1055,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1028,10 +1066,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1039,10 +1077,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1050,10 +1088,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1061,10 +1099,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1072,10 +1110,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1083,10 +1121,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1094,10 +1132,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1105,10 +1143,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1116,94 +1154,94 @@
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="12">
+        <v>16</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="13"/>
+      <c r="B18" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" s="16"/>
+    </row>
+    <row r="19" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="14"/>
+      <c r="B19" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="C16" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="6">
-        <v>16</v>
-      </c>
-      <c r="B17" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="8"/>
-      <c r="B18" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="C18" s="9"/>
-    </row>
-    <row r="19" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="10"/>
-      <c r="B19" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="C19" s="11"/>
+      <c r="C19" s="17"/>
     </row>
     <row r="20" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>17</v>
       </c>
       <c r="B20" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="12">
+        <v>18</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="13"/>
+      <c r="B22" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" s="16"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="13"/>
+      <c r="B23" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="C20" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="6">
-        <v>18</v>
-      </c>
-      <c r="B21" s="12" t="s">
+      <c r="C23" s="16"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="13"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="16"/>
+    </row>
+    <row r="25" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="14"/>
+      <c r="B25" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="C21" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="8"/>
-      <c r="B22" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="C22" s="9"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="8"/>
-      <c r="B23" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="C23" s="9"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="8"/>
-      <c r="B24" s="13"/>
-      <c r="C24" s="9"/>
-    </row>
-    <row r="25" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="10"/>
-      <c r="B25" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="C25" s="11"/>
+      <c r="C25" s="17"/>
     </row>
     <row r="26" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <v>19</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1211,10 +1249,10 @@
         <v>20</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
